--- a/data/municipal_elections/processed/niedersachsen_2011_16_staedte.xlsx
+++ b/data/municipal_elections/processed/niedersachsen_2011_16_staedte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentheddesheimer/Documents/GitHub/german_election_data/data/municipal_elections/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57255242-4AC8-744A-82A4-5A4756E90E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76085B65-8404-BB44-8FB8-CF8FCCE22F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{0253096E-4F07-E843-AE2B-F7383F51C9A0}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17500" xr2:uid="{0253096E-4F07-E843-AE2B-F7383F51C9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>AGS_8dig</t>
   </si>
@@ -147,6 +147,51 @@
   </si>
   <si>
     <t>abs_DiePARTEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Ilsede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clausthal Zellerfeld, Bergstadt            </t>
+  </si>
+  <si>
+    <t>03157009</t>
+  </si>
+  <si>
+    <t>03153018</t>
+  </si>
+  <si>
+    <t>03351026</t>
+  </si>
+  <si>
+    <t>Südheide</t>
+  </si>
+  <si>
+    <t>03351501</t>
+  </si>
+  <si>
+    <t>Lohheide</t>
+  </si>
+  <si>
+    <t>03352061</t>
+  </si>
+  <si>
+    <t>Wurster Nordseeküste</t>
+  </si>
+  <si>
+    <t>03352062</t>
+  </si>
+  <si>
+    <t>Geestland</t>
+  </si>
+  <si>
+    <t>03358501</t>
+  </si>
+  <si>
+    <t>Osterheide</t>
   </si>
 </sst>
 </file>
@@ -545,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4269B4-10EE-184C-8B34-B1D8FA1DAFD9}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1374,6 +1419,331 @@
       <c r="R17" s="3"/>
       <c r="T17" s="3"/>
     </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12079</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5196</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15250</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3251</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6699</v>
+      </c>
+      <c r="M18" s="3">
+        <v>838</v>
+      </c>
+      <c r="N18" s="3">
+        <v>787</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1522</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3">
+        <v>17944</v>
+      </c>
+      <c r="I19" s="3">
+        <v>9061</v>
+      </c>
+      <c r="J19" s="3">
+        <v>26183</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7743</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9633</v>
+      </c>
+      <c r="M19" s="3">
+        <v>791</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1834</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2164</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
+        <v>1012</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9780</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5607</v>
+      </c>
+      <c r="J20" s="3">
+        <v>16460</v>
+      </c>
+      <c r="K20" s="3">
+        <v>7242</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4204</v>
+      </c>
+      <c r="M20" s="3">
+        <v>338</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1493</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1464</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
+        <v>1162</v>
+      </c>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3">
+        <v>663</v>
+      </c>
+      <c r="I21" s="3">
+        <v>382</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1123</v>
+      </c>
+      <c r="K21" s="3">
+        <v>486</v>
+      </c>
+      <c r="L21" s="3">
+        <v>218</v>
+      </c>
+      <c r="M21" s="3">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>61</v>
+      </c>
+      <c r="O21" s="3">
+        <v>218</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <v>31</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13930</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7260</v>
+      </c>
+      <c r="J22" s="3">
+        <v>21374</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7932</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7670</v>
+      </c>
+      <c r="M22" s="3">
+        <v>689</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1601</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
+        <v>623</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>2016</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="3">
+        <v>25892</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13581</v>
+      </c>
+      <c r="J23" s="3">
+        <v>39661</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19006</v>
+      </c>
+      <c r="L23" s="3">
+        <v>11089</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1066</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3236</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3545</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3">
+        <v>1063</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>2016</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>473</v>
+      </c>
+      <c r="I24" s="3">
+        <v>243</v>
+      </c>
+      <c r="J24" s="3">
+        <v>691</v>
+      </c>
+      <c r="K24" s="3">
+        <v>239</v>
+      </c>
+      <c r="L24" s="3">
+        <v>223</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3">
+        <v>137</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
+        <v>21</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
